--- a/simulated_data/10nodes_50len_trial3.xlsx
+++ b/simulated_data/10nodes_50len_trial3.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.159122609625138</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.161970481721299</v>
+        <v>34.725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41.63500000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.035</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37.935</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4598337376986769</v>
+        <v>34.725</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4644932305362614</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.905</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24.005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.635</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3817780857817562</v>
+        <v>43.135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3782293427002337</v>
+        <v>7.800000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.414999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.035</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.607021235430282</v>
+        <v>5.91</v>
       </c>
       <c r="C5" t="n">
-        <v>1.608397063570898</v>
+        <v>40.06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43.265</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.465</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.265</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.155</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.242912090128783</v>
+        <v>41.63500000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1.240197255903394</v>
+        <v>20.905</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.414999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.265</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.725</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.895</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5869069490999641</v>
+        <v>39.52</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5902921538324007</v>
+        <v>24.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.465</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.725</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.205</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.855</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30.705</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.525206375978554</v>
+        <v>46.035</v>
       </c>
       <c r="C8" t="n">
-        <v>1.523597527929144</v>
+        <v>24.005</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.265</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.65</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.674880636788674</v>
+        <v>21.76</v>
       </c>
       <c r="C9" t="n">
-        <v>2.674020895183399</v>
+        <v>45.67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.205</v>
+      </c>
+      <c r="H9" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36.735</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1730515712532077</v>
+        <v>21.03</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172245788336483</v>
+        <v>11.77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.035</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.855</v>
+      </c>
+      <c r="H10" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.255</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>37.935</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>15.635</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.155</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.895</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.705</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.735</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29.255</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.34</v>
+        <v>38.46</v>
       </c>
       <c r="D2" t="n">
-        <v>40.36</v>
+        <v>39.28</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04</v>
+        <v>6.6</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97</v>
+        <v>44.51</v>
       </c>
       <c r="G2" t="n">
-        <v>25.49</v>
+        <v>16.13</v>
       </c>
       <c r="H2" t="n">
-        <v>46.14</v>
+        <v>44.92</v>
       </c>
       <c r="I2" t="n">
-        <v>16.85</v>
+        <v>27.89</v>
       </c>
       <c r="J2" t="n">
-        <v>20.99</v>
+        <v>23.57</v>
       </c>
       <c r="K2" t="n">
-        <v>37.21</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38.34</v>
+        <v>38.46</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.08</v>
+        <v>10.28</v>
       </c>
       <c r="E3" t="n">
-        <v>30.93</v>
+        <v>31.89</v>
       </c>
       <c r="F3" t="n">
-        <v>19.47</v>
+        <v>21.12</v>
       </c>
       <c r="G3" t="n">
-        <v>20.6</v>
+        <v>25.84</v>
       </c>
       <c r="H3" t="n">
-        <v>17.87</v>
+        <v>22.89</v>
       </c>
       <c r="I3" t="n">
-        <v>44.43</v>
+        <v>30.28</v>
       </c>
       <c r="J3" t="n">
-        <v>17.78</v>
+        <v>15.49</v>
       </c>
       <c r="K3" t="n">
-        <v>17.94</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.36</v>
+        <v>39.28</v>
       </c>
       <c r="C4" t="n">
-        <v>9.08</v>
+        <v>10.28</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.08</v>
+        <v>32.79</v>
       </c>
       <c r="F4" t="n">
-        <v>10.53</v>
+        <v>10.92</v>
       </c>
       <c r="G4" t="n">
-        <v>27.71</v>
+        <v>24.08</v>
       </c>
       <c r="H4" t="n">
-        <v>8.960000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="I4" t="n">
-        <v>42.88</v>
+        <v>38.04</v>
       </c>
       <c r="J4" t="n">
-        <v>22.03</v>
+        <v>19.95</v>
       </c>
       <c r="K4" t="n">
-        <v>10.27</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.04</v>
+        <v>6.6</v>
       </c>
       <c r="C5" t="n">
-        <v>30.93</v>
+        <v>31.89</v>
       </c>
       <c r="D5" t="n">
-        <v>35.08</v>
+        <v>32.79</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.49</v>
+        <v>38.5</v>
       </c>
       <c r="G5" t="n">
-        <v>14.84</v>
+        <v>10.49</v>
       </c>
       <c r="H5" t="n">
-        <v>42.36</v>
+        <v>39.03</v>
       </c>
       <c r="I5" t="n">
-        <v>26.38</v>
+        <v>24.93</v>
       </c>
       <c r="J5" t="n">
-        <v>13.27</v>
+        <v>17.24</v>
       </c>
       <c r="K5" t="n">
-        <v>34.78</v>
+        <v>37.73</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46.97</v>
+        <v>44.51</v>
       </c>
       <c r="C6" t="n">
-        <v>19.47</v>
+        <v>21.12</v>
       </c>
       <c r="D6" t="n">
-        <v>10.53</v>
+        <v>10.92</v>
       </c>
       <c r="E6" t="n">
-        <v>43.49</v>
+        <v>38.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.86</v>
+        <v>28.39</v>
       </c>
       <c r="H6" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
-        <v>45.92</v>
+        <v>48.1</v>
       </c>
       <c r="J6" t="n">
-        <v>31.09</v>
+        <v>29.14</v>
       </c>
       <c r="K6" t="n">
-        <v>10.12</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.49</v>
+        <v>16.13</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6</v>
+        <v>25.84</v>
       </c>
       <c r="D7" t="n">
-        <v>27.71</v>
+        <v>24.08</v>
       </c>
       <c r="E7" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="J7" t="n">
         <v>14.84</v>
       </c>
-      <c r="F7" t="n">
-        <v>37.86</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.91</v>
-      </c>
       <c r="K7" t="n">
-        <v>31.76</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46.14</v>
+        <v>44.92</v>
       </c>
       <c r="C8" t="n">
-        <v>17.87</v>
+        <v>22.89</v>
       </c>
       <c r="D8" t="n">
-        <v>8.960000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="E8" t="n">
-        <v>42.36</v>
+        <v>39.03</v>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>36.42</v>
+        <v>28.78</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>45.64</v>
+        <v>49.46</v>
       </c>
       <c r="J8" t="n">
-        <v>29.83</v>
+        <v>30.38</v>
       </c>
       <c r="K8" t="n">
-        <v>9.74</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.85</v>
+        <v>27.89</v>
       </c>
       <c r="C9" t="n">
-        <v>44.43</v>
+        <v>30.28</v>
       </c>
       <c r="D9" t="n">
-        <v>42.88</v>
+        <v>38.04</v>
       </c>
       <c r="E9" t="n">
-        <v>26.38</v>
+        <v>24.93</v>
       </c>
       <c r="F9" t="n">
-        <v>45.92</v>
+        <v>48.1</v>
       </c>
       <c r="G9" t="n">
-        <v>38.5</v>
+        <v>30.12</v>
       </c>
       <c r="H9" t="n">
-        <v>45.64</v>
+        <v>49.46</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.64</v>
+        <v>19.36</v>
       </c>
       <c r="K9" t="n">
-        <v>35.9</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.99</v>
+        <v>23.57</v>
       </c>
       <c r="C10" t="n">
-        <v>17.78</v>
+        <v>15.49</v>
       </c>
       <c r="D10" t="n">
-        <v>22.03</v>
+        <v>19.95</v>
       </c>
       <c r="E10" t="n">
-        <v>13.27</v>
+        <v>17.24</v>
       </c>
       <c r="F10" t="n">
-        <v>31.09</v>
+        <v>29.14</v>
       </c>
       <c r="G10" t="n">
-        <v>9.91</v>
+        <v>14.84</v>
       </c>
       <c r="H10" t="n">
-        <v>29.83</v>
+        <v>30.38</v>
       </c>
       <c r="I10" t="n">
-        <v>30.64</v>
+        <v>19.36</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.45</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>37.21</v>
+        <v>44.2</v>
       </c>
       <c r="C11" t="n">
-        <v>17.94</v>
+        <v>12.94</v>
       </c>
       <c r="D11" t="n">
-        <v>10.27</v>
+        <v>4.98</v>
       </c>
       <c r="E11" t="n">
-        <v>34.78</v>
+        <v>37.73</v>
       </c>
       <c r="F11" t="n">
-        <v>10.12</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>31.76</v>
+        <v>28.83</v>
       </c>
       <c r="H11" t="n">
-        <v>9.74</v>
+        <v>11.25</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>42.3</v>
       </c>
       <c r="J11" t="n">
-        <v>23.45</v>
+        <v>24.71</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.08106905039743</v>
+        <v>-17.69541109994428</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.323251247240784</v>
+        <v>-6.544609921657705</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.78832859928446</v>
+        <v>11.58129351914864</v>
       </c>
       <c r="C3" t="n">
-        <v>9.20591818409347</v>
+        <v>18.38974061246375</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.22525088070984</v>
+        <v>17.82692306254065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7984357338554534</v>
+        <v>10.22798382345729</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.11734661203478</v>
+        <v>-12.26881614077855</v>
       </c>
       <c r="C5" t="n">
-        <v>7.970775225172616</v>
+        <v>-2.78575004597679</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.45147640663153</v>
+        <v>25.82243560755112</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.693239787763442</v>
+        <v>2.789123087161236</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.301177008358555</v>
+        <v>-1.815972321773877</v>
       </c>
       <c r="C7" t="n">
-        <v>16.94294701388092</v>
+        <v>-3.700685827303206</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-20.79537844801439</v>
+        <v>26.568603642921</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.223976493920381</v>
+        <v>1.082080426382928</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.27809864488745</v>
+        <v>-18.5567806350554</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.08008978418969</v>
+        <v>21.33615865857988</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.871040375284764</v>
+        <v>-2.10198914888508</v>
       </c>
       <c r="C10" t="n">
-        <v>7.135336720765323</v>
+        <v>11.13246060277104</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-11.38829735632277</v>
+        <v>22.60756841796809</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.732855564653484</v>
+        <v>11.61192505119695</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.63</v>
+        <v>5.12</v>
       </c>
       <c r="D2" t="n">
-        <v>34.05</v>
+        <v>3.93</v>
       </c>
       <c r="E2" t="n">
-        <v>26.82</v>
+        <v>2.2</v>
       </c>
       <c r="F2" t="n">
-        <v>47.67</v>
+        <v>2.71</v>
       </c>
       <c r="G2" t="n">
-        <v>17.03</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>45.97</v>
+        <v>2.31</v>
       </c>
       <c r="I2" t="n">
-        <v>17.45</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>18.3</v>
+        <v>4.23</v>
       </c>
       <c r="K2" t="n">
-        <v>48.95</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.63</v>
+        <v>5.12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="E3" t="n">
-        <v>22.56</v>
+        <v>2.93</v>
       </c>
       <c r="F3" t="n">
-        <v>14.9</v>
+        <v>2.41</v>
       </c>
       <c r="G3" t="n">
-        <v>19.58</v>
+        <v>0.18</v>
       </c>
       <c r="H3" t="n">
-        <v>13.62</v>
+        <v>2.81</v>
       </c>
       <c r="I3" t="n">
-        <v>36.18</v>
+        <v>4.44</v>
       </c>
       <c r="J3" t="n">
-        <v>18.73</v>
+        <v>0.9</v>
       </c>
       <c r="K3" t="n">
-        <v>21.28</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.05</v>
+        <v>3.93</v>
       </c>
       <c r="C4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>31.92</v>
+        <v>1.74</v>
       </c>
       <c r="F4" t="n">
-        <v>16.6</v>
+        <v>1.22</v>
       </c>
       <c r="G4" t="n">
-        <v>24.69</v>
+        <v>1.37</v>
       </c>
       <c r="H4" t="n">
-        <v>14.47</v>
+        <v>1.62</v>
       </c>
       <c r="I4" t="n">
-        <v>41.71</v>
+        <v>3.24</v>
       </c>
       <c r="J4" t="n">
-        <v>15.75</v>
+        <v>0.29</v>
       </c>
       <c r="K4" t="n">
-        <v>32.35</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.82</v>
+        <v>2.2</v>
       </c>
       <c r="C5" t="n">
-        <v>22.56</v>
+        <v>2.93</v>
       </c>
       <c r="D5" t="n">
-        <v>31.92</v>
+        <v>1.74</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>36.18</v>
+        <v>0.52</v>
       </c>
       <c r="G5" t="n">
-        <v>11.92</v>
+        <v>3.11</v>
       </c>
       <c r="H5" t="n">
-        <v>35.75</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>17.88</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>25.54</v>
+        <v>2.03</v>
       </c>
       <c r="K5" t="n">
-        <v>25.54</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47.67</v>
+        <v>2.71</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9</v>
+        <v>2.41</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6</v>
+        <v>1.22</v>
       </c>
       <c r="E6" t="n">
-        <v>36.18</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.05</v>
+        <v>2.59</v>
       </c>
       <c r="H6" t="n">
-        <v>2.13</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
-        <v>50.65</v>
+        <v>2.03</v>
       </c>
       <c r="J6" t="n">
-        <v>30.65</v>
+        <v>1.51</v>
       </c>
       <c r="K6" t="n">
-        <v>23.84</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.03</v>
+        <v>5.3</v>
       </c>
       <c r="C7" t="n">
-        <v>19.58</v>
+        <v>0.18</v>
       </c>
       <c r="D7" t="n">
-        <v>24.69</v>
+        <v>1.37</v>
       </c>
       <c r="E7" t="n">
-        <v>11.92</v>
+        <v>3.11</v>
       </c>
       <c r="F7" t="n">
-        <v>34.05</v>
+        <v>2.59</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.78</v>
+        <v>2.99</v>
       </c>
       <c r="I7" t="n">
-        <v>17.03</v>
+        <v>4.61</v>
       </c>
       <c r="J7" t="n">
-        <v>14.47</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>31.92</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45.97</v>
+        <v>2.31</v>
       </c>
       <c r="C8" t="n">
-        <v>13.62</v>
+        <v>2.81</v>
       </c>
       <c r="D8" t="n">
-        <v>14.47</v>
+        <v>1.62</v>
       </c>
       <c r="E8" t="n">
-        <v>35.75</v>
+        <v>0.12</v>
       </c>
       <c r="F8" t="n">
-        <v>2.13</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>32.78</v>
+        <v>2.99</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>49.8</v>
+        <v>1.63</v>
       </c>
       <c r="J8" t="n">
-        <v>28.94</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>25.11</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.45</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>36.18</v>
+        <v>4.44</v>
       </c>
       <c r="D9" t="n">
-        <v>41.71</v>
+        <v>3.24</v>
       </c>
       <c r="E9" t="n">
-        <v>17.88</v>
+        <v>1.51</v>
       </c>
       <c r="F9" t="n">
-        <v>50.65</v>
+        <v>2.03</v>
       </c>
       <c r="G9" t="n">
-        <v>17.03</v>
+        <v>4.61</v>
       </c>
       <c r="H9" t="n">
-        <v>49.8</v>
+        <v>1.63</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>28.52</v>
+        <v>3.54</v>
       </c>
       <c r="K9" t="n">
-        <v>43.42</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3</v>
+        <v>4.23</v>
       </c>
       <c r="C10" t="n">
-        <v>18.73</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="n">
-        <v>15.75</v>
+        <v>0.29</v>
       </c>
       <c r="E10" t="n">
-        <v>25.54</v>
+        <v>2.03</v>
       </c>
       <c r="F10" t="n">
-        <v>30.65</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>14.47</v>
+        <v>1.08</v>
       </c>
       <c r="H10" t="n">
-        <v>28.94</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>28.52</v>
+        <v>3.54</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>38.31</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48.95</v>
+        <v>3.06</v>
       </c>
       <c r="C11" t="n">
-        <v>21.28</v>
+        <v>2.07</v>
       </c>
       <c r="D11" t="n">
-        <v>32.35</v>
+        <v>0.88</v>
       </c>
       <c r="E11" t="n">
-        <v>25.54</v>
+        <v>0.86</v>
       </c>
       <c r="F11" t="n">
-        <v>23.84</v>
+        <v>0.34</v>
       </c>
       <c r="G11" t="n">
-        <v>31.92</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>25.11</v>
+        <v>0.74</v>
       </c>
       <c r="I11" t="n">
-        <v>43.42</v>
+        <v>2.37</v>
       </c>
       <c r="J11" t="n">
-        <v>38.31</v>
+        <v>1.17</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5739672489313707</v>
+        <v>3.159122609625138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1591694807630403</v>
+        <v>3.161970481721299</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.206654150241095</v>
+        <v>-0.4598337376986769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02052850193039825</v>
+        <v>-0.4644932305362614</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2095156326722662</v>
+        <v>0.3817780857817562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.298154639275776</v>
+        <v>0.3782293427002337</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1882806842168285</v>
+        <v>1.607021235430282</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3338208805577146</v>
+        <v>1.608397063570898</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5421477086189372</v>
+        <v>1.242912090128783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1042211586308594</v>
+        <v>1.240197255903394</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2439115162266523</v>
+        <v>-0.5869069490999641</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0633347491561935</v>
+        <v>-0.5902921538324007</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5047994782493508</v>
+        <v>1.525206375978554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1341201135523583</v>
+        <v>1.523597527929144</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5974336170250746</v>
+        <v>2.674880636788674</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2504589658228908</v>
+        <v>2.674020895183399</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1611653710184997</v>
+        <v>0.1730515712532077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.263699606798572</v>
+        <v>0.172245788336483</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4015908410148855</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4420421608355695</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>42.08</v>
+        <v>34.39</v>
       </c>
       <c r="D2" t="n">
-        <v>33.02</v>
+        <v>40.09</v>
       </c>
       <c r="E2" t="n">
-        <v>12.75</v>
+        <v>6.72</v>
       </c>
       <c r="F2" t="n">
-        <v>22.94</v>
+        <v>49.02</v>
       </c>
       <c r="G2" t="n">
-        <v>38.37</v>
+        <v>25.54</v>
       </c>
       <c r="H2" t="n">
-        <v>20.58</v>
+        <v>48.22</v>
       </c>
       <c r="I2" t="n">
-        <v>17.25</v>
+        <v>28.35</v>
       </c>
       <c r="J2" t="n">
-        <v>31.79</v>
+        <v>18.24</v>
       </c>
       <c r="K2" t="n">
-        <v>26.23</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.08</v>
+        <v>34.39</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.75</v>
+        <v>9.02</v>
       </c>
       <c r="E3" t="n">
-        <v>33.68</v>
+        <v>29.32</v>
       </c>
       <c r="F3" t="n">
-        <v>22.05</v>
+        <v>19.12</v>
       </c>
       <c r="G3" t="n">
-        <v>17.28</v>
+        <v>28.84</v>
       </c>
       <c r="H3" t="n">
-        <v>23.99</v>
+        <v>19.71</v>
       </c>
       <c r="I3" t="n">
-        <v>29.74</v>
+        <v>45.32</v>
       </c>
       <c r="J3" t="n">
-        <v>14.26</v>
+        <v>16.48</v>
       </c>
       <c r="K3" t="n">
-        <v>15.87</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.02</v>
+        <v>40.09</v>
       </c>
       <c r="C4" t="n">
-        <v>9.75</v>
+        <v>9.02</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.14</v>
+        <v>34.2</v>
       </c>
       <c r="F4" t="n">
-        <v>12.31</v>
+        <v>10.23</v>
       </c>
       <c r="G4" t="n">
-        <v>19.07</v>
+        <v>28.21</v>
       </c>
       <c r="H4" t="n">
-        <v>14.24</v>
+        <v>10.69</v>
       </c>
       <c r="I4" t="n">
-        <v>19.99</v>
+        <v>45.42</v>
       </c>
       <c r="J4" t="n">
-        <v>11.91</v>
+        <v>21.9</v>
       </c>
       <c r="K4" t="n">
-        <v>7.11</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.75</v>
+        <v>6.72</v>
       </c>
       <c r="C5" t="n">
-        <v>33.68</v>
+        <v>29.32</v>
       </c>
       <c r="D5" t="n">
-        <v>26.14</v>
+        <v>34.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20.39</v>
+        <v>42.77</v>
       </c>
       <c r="G5" t="n">
-        <v>26.5</v>
+        <v>19.26</v>
       </c>
       <c r="H5" t="n">
-        <v>18.59</v>
+        <v>41.85</v>
       </c>
       <c r="I5" t="n">
-        <v>19.06</v>
+        <v>25.09</v>
       </c>
       <c r="J5" t="n">
-        <v>21.14</v>
+        <v>12.84</v>
       </c>
       <c r="K5" t="n">
-        <v>19.08</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.94</v>
+        <v>49.02</v>
       </c>
       <c r="C6" t="n">
-        <v>22.05</v>
+        <v>19.12</v>
       </c>
       <c r="D6" t="n">
-        <v>12.31</v>
+        <v>10.23</v>
       </c>
       <c r="E6" t="n">
-        <v>20.39</v>
+        <v>42.77</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.28</v>
+        <v>32.87</v>
       </c>
       <c r="H6" t="n">
         <v>2.37</v>
       </c>
       <c r="I6" t="n">
-        <v>7.72</v>
+        <v>49.76</v>
       </c>
       <c r="J6" t="n">
-        <v>18.83</v>
+        <v>31.19</v>
       </c>
       <c r="K6" t="n">
-        <v>8.68</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.37</v>
+        <v>25.54</v>
       </c>
       <c r="C7" t="n">
-        <v>17.28</v>
+        <v>28.84</v>
       </c>
       <c r="D7" t="n">
-        <v>19.07</v>
+        <v>28.21</v>
       </c>
       <c r="E7" t="n">
-        <v>26.5</v>
+        <v>19.26</v>
       </c>
       <c r="F7" t="n">
-        <v>27.28</v>
+        <v>32.87</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.94</v>
+        <v>31.1</v>
       </c>
       <c r="I7" t="n">
-        <v>33.18</v>
+        <v>17.23</v>
       </c>
       <c r="J7" t="n">
-        <v>8.449999999999999</v>
+        <v>18.89</v>
       </c>
       <c r="K7" t="n">
-        <v>18.62</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.58</v>
+        <v>48.22</v>
       </c>
       <c r="C8" t="n">
-        <v>23.99</v>
+        <v>19.71</v>
       </c>
       <c r="D8" t="n">
-        <v>14.24</v>
+        <v>10.69</v>
       </c>
       <c r="E8" t="n">
-        <v>18.59</v>
+        <v>41.85</v>
       </c>
       <c r="F8" t="n">
         <v>2.37</v>
       </c>
       <c r="G8" t="n">
-        <v>27.94</v>
+        <v>31.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.82</v>
+        <v>47.85</v>
       </c>
       <c r="J8" t="n">
-        <v>19.51</v>
+        <v>30.65</v>
       </c>
       <c r="K8" t="n">
-        <v>9.65</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.25</v>
+        <v>28.35</v>
       </c>
       <c r="C9" t="n">
-        <v>29.74</v>
+        <v>45.32</v>
       </c>
       <c r="D9" t="n">
-        <v>19.99</v>
+        <v>45.42</v>
       </c>
       <c r="E9" t="n">
-        <v>19.06</v>
+        <v>25.09</v>
       </c>
       <c r="F9" t="n">
-        <v>7.72</v>
+        <v>49.76</v>
       </c>
       <c r="G9" t="n">
-        <v>33.18</v>
+        <v>17.23</v>
       </c>
       <c r="H9" t="n">
-        <v>5.82</v>
+        <v>47.85</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.84</v>
+        <v>32.19</v>
       </c>
       <c r="K9" t="n">
-        <v>15.32</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.79</v>
+        <v>18.24</v>
       </c>
       <c r="C10" t="n">
-        <v>14.26</v>
+        <v>16.48</v>
       </c>
       <c r="D10" t="n">
-        <v>11.91</v>
+        <v>21.9</v>
       </c>
       <c r="E10" t="n">
-        <v>21.14</v>
+        <v>12.84</v>
       </c>
       <c r="F10" t="n">
-        <v>18.83</v>
+        <v>31.19</v>
       </c>
       <c r="G10" t="n">
-        <v>8.449999999999999</v>
+        <v>18.89</v>
       </c>
       <c r="H10" t="n">
-        <v>19.51</v>
+        <v>30.65</v>
       </c>
       <c r="I10" t="n">
-        <v>24.84</v>
+        <v>32.19</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.23</v>
+        <v>40.59</v>
       </c>
       <c r="C11" t="n">
-        <v>15.87</v>
+        <v>16.86</v>
       </c>
       <c r="D11" t="n">
-        <v>7.11</v>
+        <v>9.44</v>
       </c>
       <c r="E11" t="n">
-        <v>19.08</v>
+        <v>34.08</v>
       </c>
       <c r="F11" t="n">
-        <v>8.68</v>
+        <v>10.03</v>
       </c>
       <c r="G11" t="n">
-        <v>18.62</v>
+        <v>22.84</v>
       </c>
       <c r="H11" t="n">
-        <v>9.65</v>
+        <v>8.33</v>
       </c>
       <c r="I11" t="n">
-        <v>15.32</v>
+        <v>39.76</v>
       </c>
       <c r="J11" t="n">
-        <v>10.19</v>
+        <v>23.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.88561565491764</v>
+        <v>6.077160417263052</v>
       </c>
       <c r="C2" t="n">
-        <v>21.82594739195819</v>
+        <v>25.72826203373144</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.118572028332859</v>
+        <v>12.92922433304043</v>
       </c>
       <c r="C3" t="n">
-        <v>-15.19018151285939</v>
+        <v>-7.97576223462672</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.07470908359803</v>
+        <v>6.560883248349263</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.604397548220298</v>
+        <v>-14.36040523543328</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.882514257538015</v>
+        <v>3.169891653971901</v>
       </c>
       <c r="C5" t="n">
-        <v>17.52227317679978</v>
+        <v>19.67392688234406</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.66325334695335</v>
+        <v>1.170946484032026</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8851848868916685</v>
+        <v>-23.05056823334834</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-16.60930742971783</v>
+        <v>-11.55538494865851</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.45687016410544</v>
+        <v>7.25788836415304</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.18655292962916</v>
+        <v>-0.9432774061281601</v>
       </c>
       <c r="C8" t="n">
-        <v>1.425972791471727</v>
+        <v>-21.97788682343471</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.99265820687847</v>
+        <v>-21.88247319296808</v>
       </c>
       <c r="C9" t="n">
-        <v>4.704111239262419</v>
+        <v>21.04501620236956</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-8.162829447854984</v>
+        <v>7.336277811751363</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.080847164272304</v>
+        <v>7.528168325381628</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.011371993574867</v>
+        <v>-2.863248400653283</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.561007779610651</v>
+        <v>-13.86863928113668</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001306533813476562</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002145767211914062</v>
+        <v>43.71</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2790794372558594</v>
+        <v>40.48</v>
       </c>
       <c r="E2" t="n">
-        <v>1.308633089065552</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07504868507385254</v>
+        <v>51</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1051626205444336</v>
+        <v>37.64</v>
       </c>
       <c r="H2" t="n">
-        <v>1.699660301208496</v>
+        <v>14.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.4878374334598309</v>
       </c>
       <c r="C2" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.295177788602045</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.692666666666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2122874385378458</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001306533813476562</v>
+        <v>-0.4150514193352787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.07620222411909272</v>
       </c>
       <c r="C3" t="n">
-        <v>22.115</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9249878226984901</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.649555555555556</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.171135782923139</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002145767211914062</v>
+        <v>0.511347394698113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.09889893094310567</v>
       </c>
       <c r="C4" t="n">
-        <v>38.21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9308755760368665</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.15155555555556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3841801700614248</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2790794372558594</v>
+        <v>0.3892421325648239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.2502683199743026</v>
       </c>
       <c r="C5" t="n">
-        <v>60.84</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9974397269042031</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26.29911111111112</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9008612772828656</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.308633089065552</v>
+        <v>-0.4380966350629212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.4810202479354545</v>
       </c>
       <c r="C6" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.543778801843318</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.290444444444445</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1863947056500398</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07504868507385254</v>
+        <v>0.3932565635711304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.2785596898257472</v>
       </c>
       <c r="C7" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.179723502304148</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.398888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4592912723602912</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1051626205444336</v>
+        <v>0.1184302100263272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.284654558947991</v>
       </c>
       <c r="C8" t="n">
-        <v>56.65</v>
+        <v>-0.130310084087193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1419209324911761</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.602759036845041</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1178098306905671</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.1695130777110982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.2474919805682603</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3790185648959059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="I3" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.76</v>
       </c>
       <c r="D8" t="n">
-        <v>1.93778801843318</v>
+        <v>11.17</v>
       </c>
       <c r="E8" t="n">
-        <v>13.24022222222222</v>
+        <v>32.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4293727827118846</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>32.24</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.699660301208496</v>
+        <v>31.93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.16177076059075</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.40692938779738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-10.95933656495881</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-13.43086460115548</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.795316437502459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-15.77336130796005</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.765063645245353</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.4357309509824</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.263336456301827</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.02730231080257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-12.44431054358562</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.15831946949679</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.759593108656214</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-12.12406128820697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.75067496488854</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.91012580403191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.722401930664891</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.575962964213089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.504456094531978</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-9.744990135467678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3752758491889525</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2418043470656801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1267564930969351</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4866581781136164</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2922329842588501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.266583592611118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.384763404230288</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1165310020245837</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4384319456498765</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3142533886503828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2205305823716859</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1033634638004163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3811171992141167</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3177194514570807</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2963094737114477</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3981727749539013</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2406535366323875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5001128920624698</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2789942239194009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.03176283756431269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38.82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>38.82</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50.56482064733881</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.924698618944405</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-23.99415538701068</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.53306240756528</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-39.31281660274672</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6.427514907716136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44.67431329212205</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.2042071465609</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-45.70745596657768</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.93191356168011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.0421116208397</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-10.85942857292611</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-40.64890746342078</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.21721381153147</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48.06606453545665</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.65965568484861</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.76050381951029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-27.6459241454221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-32.44447849551165</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.936655503185957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002741813659667969</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002679824829101562</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002770423889160156</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.344382047653198</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.185063123703003</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5288546085357666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07647180557250977</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.758587837219238</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01367783546447754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009507656097412109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.39</v>
+        <v>35.32</v>
       </c>
       <c r="D2" t="n">
-        <v>37.94</v>
+        <v>28.8</v>
       </c>
       <c r="E2" t="n">
-        <v>6.78</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45</v>
+        <v>24.05</v>
       </c>
       <c r="G2" t="n">
-        <v>47.12</v>
+        <v>35.68</v>
       </c>
       <c r="H2" t="n">
-        <v>43.74</v>
+        <v>21.94</v>
       </c>
       <c r="I2" t="n">
-        <v>17.76</v>
+        <v>32.67</v>
       </c>
       <c r="J2" t="n">
-        <v>27.54</v>
+        <v>20.16</v>
       </c>
       <c r="K2" t="n">
-        <v>37.41</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.06</v>
+        <v>35.32</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.15</v>
+        <v>15.38</v>
       </c>
       <c r="E3" t="n">
-        <v>31.79</v>
+        <v>27.11</v>
       </c>
       <c r="F3" t="n">
-        <v>24.37</v>
+        <v>23.73</v>
       </c>
       <c r="G3" t="n">
-        <v>24.03</v>
+        <v>7.08</v>
       </c>
       <c r="H3" t="n">
-        <v>28.68</v>
+        <v>24.73</v>
       </c>
       <c r="I3" t="n">
-        <v>43.01</v>
+        <v>17.52</v>
       </c>
       <c r="J3" t="n">
-        <v>15.99</v>
+        <v>17.69</v>
       </c>
       <c r="K3" t="n">
-        <v>14.84</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -5411,31 +7580,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.33</v>
+        <v>28.8</v>
       </c>
       <c r="C4" t="n">
-        <v>7.45</v>
+        <v>15.38</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.92</v>
+        <v>22.49</v>
       </c>
       <c r="F4" t="n">
-        <v>10.24</v>
+        <v>9.02</v>
       </c>
       <c r="G4" t="n">
-        <v>26.38</v>
+        <v>10.33</v>
       </c>
       <c r="H4" t="n">
-        <v>9.949999999999999</v>
+        <v>10.65</v>
       </c>
       <c r="I4" t="n">
-        <v>42.64</v>
+        <v>28.48</v>
       </c>
       <c r="J4" t="n">
-        <v>21.04</v>
+        <v>20.32</v>
       </c>
       <c r="K4" t="n">
         <v>8.140000000000001</v>
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.04</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>48.33</v>
+        <v>27.11</v>
       </c>
       <c r="D5" t="n">
-        <v>38.52</v>
+        <v>22.49</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.34</v>
+        <v>20.01</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5</v>
+        <v>28.06</v>
       </c>
       <c r="H5" t="n">
-        <v>28.65</v>
+        <v>18.31</v>
       </c>
       <c r="I5" t="n">
-        <v>29.27</v>
+        <v>24.92</v>
       </c>
       <c r="J5" t="n">
-        <v>9.220000000000001</v>
+        <v>11.98</v>
       </c>
       <c r="K5" t="n">
-        <v>41.47</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.82</v>
+        <v>24.05</v>
       </c>
       <c r="C6" t="n">
-        <v>17.44</v>
+        <v>23.73</v>
       </c>
       <c r="D6" t="n">
-        <v>8.59</v>
+        <v>9.02</v>
       </c>
       <c r="E6" t="n">
-        <v>44.19</v>
+        <v>20.01</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.14</v>
+        <v>19.33</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
-        <v>48.33</v>
+        <v>33.87</v>
       </c>
       <c r="J6" t="n">
-        <v>34.36</v>
+        <v>22.89</v>
       </c>
       <c r="K6" t="n">
-        <v>12.51</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.92</v>
+        <v>35.68</v>
       </c>
       <c r="C7" t="n">
-        <v>25.91</v>
+        <v>7.08</v>
       </c>
       <c r="D7" t="n">
-        <v>34.64</v>
+        <v>10.33</v>
       </c>
       <c r="E7" t="n">
-        <v>11.43</v>
+        <v>28.06</v>
       </c>
       <c r="F7" t="n">
-        <v>33.31</v>
+        <v>19.33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.64</v>
+        <v>20.82</v>
       </c>
       <c r="I7" t="n">
-        <v>25.32</v>
+        <v>24.09</v>
       </c>
       <c r="J7" t="n">
-        <v>13.25</v>
+        <v>21.16</v>
       </c>
       <c r="K7" t="n">
-        <v>32.71</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48.33</v>
+        <v>21.94</v>
       </c>
       <c r="C8" t="n">
-        <v>19.33</v>
+        <v>24.73</v>
       </c>
       <c r="D8" t="n">
-        <v>13.43</v>
+        <v>10.65</v>
       </c>
       <c r="E8" t="n">
-        <v>37.88</v>
+        <v>18.31</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>27.04</v>
+        <v>20.82</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48.33</v>
+        <v>33.75</v>
       </c>
       <c r="J8" t="n">
-        <v>29.11</v>
+        <v>22.22</v>
       </c>
       <c r="K8" t="n">
-        <v>14.62</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.76</v>
+        <v>32.67</v>
       </c>
       <c r="C9" t="n">
-        <v>48.33</v>
+        <v>17.52</v>
       </c>
       <c r="D9" t="n">
-        <v>43.32</v>
+        <v>28.48</v>
       </c>
       <c r="E9" t="n">
-        <v>36.07</v>
+        <v>24.92</v>
       </c>
       <c r="F9" t="n">
-        <v>48.33</v>
+        <v>33.87</v>
       </c>
       <c r="G9" t="n">
-        <v>23.09</v>
+        <v>24.09</v>
       </c>
       <c r="H9" t="n">
-        <v>48.33</v>
+        <v>33.75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.7</v>
+        <v>13.27</v>
       </c>
       <c r="K9" t="n">
-        <v>25.14</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.52</v>
+        <v>20.16</v>
       </c>
       <c r="C10" t="n">
-        <v>7.55</v>
+        <v>17.69</v>
       </c>
       <c r="D10" t="n">
-        <v>17.03</v>
+        <v>20.32</v>
       </c>
       <c r="E10" t="n">
-        <v>13.32</v>
+        <v>11.98</v>
       </c>
       <c r="F10" t="n">
-        <v>36.44</v>
+        <v>22.89</v>
       </c>
       <c r="G10" t="n">
-        <v>18.46</v>
+        <v>21.16</v>
       </c>
       <c r="H10" t="n">
-        <v>33.93</v>
+        <v>22.22</v>
       </c>
       <c r="I10" t="n">
-        <v>22.78</v>
+        <v>13.27</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>40.14</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>38.46</v>
+        <v>25.21</v>
       </c>
       <c r="C11" t="n">
-        <v>16.43</v>
+        <v>11.28</v>
       </c>
       <c r="D11" t="n">
-        <v>8.539999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>32.84</v>
+        <v>17.55</v>
       </c>
       <c r="F11" t="n">
-        <v>9.279999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="G11" t="n">
-        <v>28.7</v>
+        <v>10.52</v>
       </c>
       <c r="H11" t="n">
-        <v>12.68</v>
+        <v>14.23</v>
       </c>
       <c r="I11" t="n">
-        <v>48.33</v>
+        <v>20.64</v>
       </c>
       <c r="J11" t="n">
-        <v>18.37</v>
+        <v>12.47</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-15.73076085089772</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.165582237084231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.2116757396251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.98844172602517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.248888367103643</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.77975310677802</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-7.35409735510077</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.410628361603348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3925834180568775</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.35304293957152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.83863957089721</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.937478252722039</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.30469146250713</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.1864027925257</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.73764400251426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-13.9487620507847</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.040421033393708</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.103425866059278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.242327039915422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.638736664184041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.295177788602045</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.692666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2122874385378458</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001306533813476562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22.115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9249878226984901</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.649555555555556</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.171135782923139</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0002145767211914062</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38.21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9308755760368665</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.15155555555556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3841801700614248</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2790794372558594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9974397269042031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26.29911111111112</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9008612772828656</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4772727272727273</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.308633089065552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.543778801843318</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.290444444444445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1863947056500398</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07504868507385254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.179723502304148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.398888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4592912723602912</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1051626205444336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56.65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.93778801843318</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.24022222222222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4293727827118846</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.699660301208496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.725</v>
+        <v>35.39</v>
       </c>
       <c r="D2" t="n">
-        <v>43.135</v>
+        <v>37.94</v>
       </c>
       <c r="E2" t="n">
-        <v>5.91</v>
+        <v>6.78</v>
       </c>
       <c r="F2" t="n">
-        <v>41.63500000000001</v>
+        <v>46.45</v>
       </c>
       <c r="G2" t="n">
-        <v>39.52</v>
+        <v>47.12</v>
       </c>
       <c r="H2" t="n">
-        <v>46.035</v>
+        <v>43.74</v>
       </c>
       <c r="I2" t="n">
-        <v>21.76</v>
+        <v>17.76</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03</v>
+        <v>27.54</v>
       </c>
       <c r="K2" t="n">
-        <v>37.935</v>
+        <v>37.41</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.725</v>
+        <v>34.06</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.800000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="E3" t="n">
-        <v>40.06</v>
+        <v>31.79</v>
       </c>
       <c r="F3" t="n">
-        <v>20.905</v>
+        <v>24.37</v>
       </c>
       <c r="G3" t="n">
-        <v>24.97</v>
+        <v>24.03</v>
       </c>
       <c r="H3" t="n">
-        <v>24.005</v>
+        <v>28.68</v>
       </c>
       <c r="I3" t="n">
-        <v>45.67</v>
+        <v>43.01</v>
       </c>
       <c r="J3" t="n">
-        <v>11.77</v>
+        <v>15.99</v>
       </c>
       <c r="K3" t="n">
-        <v>15.635</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.135</v>
+        <v>48.33</v>
       </c>
       <c r="C4" t="n">
-        <v>7.800000000000001</v>
+        <v>7.45</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.72</v>
+        <v>32.92</v>
       </c>
       <c r="F4" t="n">
-        <v>9.414999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="G4" t="n">
-        <v>30.51</v>
+        <v>26.38</v>
       </c>
       <c r="H4" t="n">
-        <v>11.69</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>42.98</v>
+        <v>42.64</v>
       </c>
       <c r="J4" t="n">
-        <v>19.035</v>
+        <v>21.04</v>
       </c>
       <c r="K4" t="n">
-        <v>8.34</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.91</v>
+        <v>5.04</v>
       </c>
       <c r="C5" t="n">
-        <v>40.06</v>
+        <v>48.33</v>
       </c>
       <c r="D5" t="n">
-        <v>35.72</v>
+        <v>38.52</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.265</v>
+        <v>42.34</v>
       </c>
       <c r="G5" t="n">
-        <v>13.465</v>
+        <v>15.5</v>
       </c>
       <c r="H5" t="n">
-        <v>33.265</v>
+        <v>28.65</v>
       </c>
       <c r="I5" t="n">
-        <v>32.67</v>
+        <v>29.27</v>
       </c>
       <c r="J5" t="n">
-        <v>11.27</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>37.155</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.63500000000001</v>
+        <v>36.82</v>
       </c>
       <c r="C6" t="n">
-        <v>20.905</v>
+        <v>17.44</v>
       </c>
       <c r="D6" t="n">
-        <v>9.414999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>43.265</v>
+        <v>44.19</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.725</v>
+        <v>40.14</v>
       </c>
       <c r="H6" t="n">
-        <v>1.805</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
         <v>48.33</v>
       </c>
       <c r="J6" t="n">
-        <v>35.4</v>
+        <v>34.36</v>
       </c>
       <c r="K6" t="n">
-        <v>10.895</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.52</v>
+        <v>31.92</v>
       </c>
       <c r="C7" t="n">
-        <v>24.97</v>
+        <v>25.91</v>
       </c>
       <c r="D7" t="n">
-        <v>30.51</v>
+        <v>34.64</v>
       </c>
       <c r="E7" t="n">
-        <v>13.465</v>
+        <v>11.43</v>
       </c>
       <c r="F7" t="n">
-        <v>36.725</v>
+        <v>33.31</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.84</v>
+        <v>38.64</v>
       </c>
       <c r="I7" t="n">
-        <v>24.205</v>
+        <v>25.32</v>
       </c>
       <c r="J7" t="n">
-        <v>15.855</v>
+        <v>13.25</v>
       </c>
       <c r="K7" t="n">
-        <v>30.705</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="8">
@@ -5952,22 +8536,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46.035</v>
+        <v>48.33</v>
       </c>
       <c r="C8" t="n">
-        <v>24.005</v>
+        <v>19.33</v>
       </c>
       <c r="D8" t="n">
-        <v>11.69</v>
+        <v>13.43</v>
       </c>
       <c r="E8" t="n">
-        <v>33.265</v>
+        <v>37.88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.805</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>32.84</v>
+        <v>27.04</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -5976,10 +8560,10 @@
         <v>48.33</v>
       </c>
       <c r="J8" t="n">
-        <v>31.52</v>
+        <v>29.11</v>
       </c>
       <c r="K8" t="n">
-        <v>13.65</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="9">
@@ -5987,22 +8571,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.76</v>
+        <v>25.76</v>
       </c>
       <c r="C9" t="n">
-        <v>45.67</v>
+        <v>48.33</v>
       </c>
       <c r="D9" t="n">
-        <v>42.98</v>
+        <v>43.32</v>
       </c>
       <c r="E9" t="n">
-        <v>32.67</v>
+        <v>36.07</v>
       </c>
       <c r="F9" t="n">
         <v>48.33</v>
       </c>
       <c r="G9" t="n">
-        <v>24.205</v>
+        <v>23.09</v>
       </c>
       <c r="H9" t="n">
         <v>48.33</v>
@@ -6011,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.24</v>
+        <v>43.7</v>
       </c>
       <c r="K9" t="n">
-        <v>36.735</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.03</v>
+        <v>14.52</v>
       </c>
       <c r="C10" t="n">
-        <v>11.77</v>
+        <v>7.55</v>
       </c>
       <c r="D10" t="n">
-        <v>19.035</v>
+        <v>17.03</v>
       </c>
       <c r="E10" t="n">
-        <v>11.27</v>
+        <v>13.32</v>
       </c>
       <c r="F10" t="n">
-        <v>35.4</v>
+        <v>36.44</v>
       </c>
       <c r="G10" t="n">
-        <v>15.855</v>
+        <v>18.46</v>
       </c>
       <c r="H10" t="n">
-        <v>31.52</v>
+        <v>33.93</v>
       </c>
       <c r="I10" t="n">
-        <v>33.24</v>
+        <v>22.78</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>29.255</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>37.935</v>
+        <v>38.46</v>
       </c>
       <c r="C11" t="n">
-        <v>15.635</v>
+        <v>16.43</v>
       </c>
       <c r="D11" t="n">
-        <v>8.34</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>37.155</v>
+        <v>32.84</v>
       </c>
       <c r="F11" t="n">
-        <v>10.895</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>30.705</v>
+        <v>28.7</v>
       </c>
       <c r="H11" t="n">
-        <v>13.65</v>
+        <v>12.68</v>
       </c>
       <c r="I11" t="n">
-        <v>36.735</v>
+        <v>48.33</v>
       </c>
       <c r="J11" t="n">
-        <v>29.255</v>
+        <v>18.37</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="E3" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.48</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33.87</v>
-      </c>
-      <c r="J6" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="J7" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28.48</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33.87</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="H9" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12.47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25.21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-15.73076085089772</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.165582237084231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.2116757396251</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.98844172602517</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.248888367103643</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.77975310677802</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-7.35409735510077</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-2.410628361603348</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.3925834180568775</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.35304293957152</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17.83863957089721</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.937478252722039</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.30469146250713</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15.1864027925257</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14.73764400251426</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-13.9487620507847</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.040421033393708</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-6.103425866059278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8.242327039915422</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.638736664184041</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.12</v>
+        <v>34.72</v>
       </c>
       <c r="D2" t="n">
-        <v>3.93</v>
+        <v>42.83</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2</v>
+        <v>5.84</v>
       </c>
       <c r="F2" t="n">
-        <v>2.71</v>
+        <v>41.36</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>38.78</v>
       </c>
       <c r="H2" t="n">
-        <v>2.31</v>
+        <v>45.98</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6899999999999999</v>
+        <v>21.39</v>
       </c>
       <c r="J2" t="n">
-        <v>4.23</v>
+        <v>19.99</v>
       </c>
       <c r="K2" t="n">
-        <v>3.06</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.12</v>
+        <v>34.72</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.19</v>
+        <v>7.79</v>
       </c>
       <c r="E3" t="n">
-        <v>2.93</v>
+        <v>39.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2.41</v>
+        <v>20.61</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18</v>
+        <v>24.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.81</v>
+        <v>23.54</v>
       </c>
       <c r="I3" t="n">
-        <v>4.44</v>
+        <v>45.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
+        <v>10.99</v>
       </c>
       <c r="K3" t="n">
-        <v>2.07</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.93</v>
+        <v>42.83</v>
       </c>
       <c r="C4" t="n">
-        <v>1.19</v>
+        <v>7.79</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.74</v>
+        <v>35.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1.22</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37</v>
+        <v>30.23</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62</v>
+        <v>11.56</v>
       </c>
       <c r="I4" t="n">
-        <v>3.24</v>
+        <v>42.98</v>
       </c>
       <c r="J4" t="n">
-        <v>0.29</v>
+        <v>18.93</v>
       </c>
       <c r="K4" t="n">
-        <v>0.88</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.2</v>
+        <v>5.84</v>
       </c>
       <c r="C5" t="n">
-        <v>2.93</v>
+        <v>39.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>35.61</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.52</v>
+        <v>43.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3.11</v>
+        <v>13.31</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>32.95</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>32.49</v>
       </c>
       <c r="J5" t="n">
-        <v>2.03</v>
+        <v>11.08</v>
       </c>
       <c r="K5" t="n">
-        <v>0.86</v>
+        <v>36.91</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.71</v>
+        <v>41.36</v>
       </c>
       <c r="C6" t="n">
-        <v>2.41</v>
+        <v>20.61</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52</v>
+        <v>43.25</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.59</v>
+        <v>36.57</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>2.03</v>
+        <v>48.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.51</v>
+        <v>35.39</v>
       </c>
       <c r="K6" t="n">
-        <v>0.34</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.3</v>
+        <v>38.78</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18</v>
+        <v>24.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>30.23</v>
       </c>
       <c r="E7" t="n">
-        <v>3.11</v>
+        <v>13.31</v>
       </c>
       <c r="F7" t="n">
-        <v>2.59</v>
+        <v>36.57</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.99</v>
+        <v>32.33</v>
       </c>
       <c r="I7" t="n">
-        <v>4.61</v>
+        <v>24.18</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>15.64</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.31</v>
+        <v>45.98</v>
       </c>
       <c r="C8" t="n">
-        <v>2.81</v>
+        <v>23.54</v>
       </c>
       <c r="D8" t="n">
-        <v>1.62</v>
+        <v>11.56</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>32.95</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>2.99</v>
+        <v>32.33</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>48.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>31.43</v>
       </c>
       <c r="K8" t="n">
-        <v>0.74</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6899999999999999</v>
+        <v>21.39</v>
       </c>
       <c r="C9" t="n">
-        <v>4.44</v>
+        <v>45.6</v>
       </c>
       <c r="D9" t="n">
-        <v>3.24</v>
+        <v>42.98</v>
       </c>
       <c r="E9" t="n">
-        <v>1.51</v>
+        <v>32.49</v>
       </c>
       <c r="F9" t="n">
-        <v>2.03</v>
+        <v>48.33</v>
       </c>
       <c r="G9" t="n">
-        <v>4.61</v>
+        <v>24.18</v>
       </c>
       <c r="H9" t="n">
-        <v>1.63</v>
+        <v>48.33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.54</v>
+        <v>31.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.37</v>
+        <v>34.86</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.23</v>
+        <v>19.99</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>10.99</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29</v>
+        <v>18.93</v>
       </c>
       <c r="E10" t="n">
-        <v>2.03</v>
+        <v>11.08</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>35.39</v>
       </c>
       <c r="G10" t="n">
-        <v>1.08</v>
+        <v>15.64</v>
       </c>
       <c r="H10" t="n">
-        <v>1.91</v>
+        <v>31.43</v>
       </c>
       <c r="I10" t="n">
-        <v>3.54</v>
+        <v>31.55</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.17</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.06</v>
+        <v>37.93</v>
       </c>
       <c r="C11" t="n">
-        <v>2.07</v>
+        <v>15.62</v>
       </c>
       <c r="D11" t="n">
-        <v>0.88</v>
+        <v>8.34</v>
       </c>
       <c r="E11" t="n">
-        <v>0.86</v>
+        <v>36.91</v>
       </c>
       <c r="F11" t="n">
-        <v>0.34</v>
+        <v>10.78</v>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>30.64</v>
       </c>
       <c r="H11" t="n">
-        <v>0.74</v>
+        <v>13.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.37</v>
+        <v>34.86</v>
       </c>
       <c r="J11" t="n">
-        <v>1.17</v>
+        <v>27.16</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
